--- a/WRDS_workspace/WRDS_Data_Sets.xlsx
+++ b/WRDS_workspace/WRDS_Data_Sets.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mpergler/Documents/David Research/Dataset Links/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethshinn/Documents/patents/WRDS_workspace/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19A6CD9E-58BB-2D46-A268-8F340E1F1DA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7609BB7-E08B-674E-A10B-F2285510E8BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="4460" windowWidth="24840" windowHeight="12120" xr2:uid="{09AF4C20-18C7-4949-84CE-E471BE138A78}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{09AF4C20-18C7-4949-84CE-E471BE138A78}"/>
   </bookViews>
   <sheets>
     <sheet name="WRDS_DATA_SETS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -372,7 +372,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -414,18 +414,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -437,11 +455,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -456,9 +476,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -787,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49965D37-40D7-FA4A-BD28-3E3AAAC98A94}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1036,7 +1062,7 @@
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="8" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1044,7 +1070,7 @@
       <c r="A19" t="s">
         <v>51</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1052,7 +1078,7 @@
       <c r="A20" t="s">
         <v>53</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="8" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1060,7 +1086,7 @@
       <c r="A21" t="s">
         <v>55</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1068,7 +1094,7 @@
       <c r="A22" t="s">
         <v>57</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="8" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1076,7 +1102,7 @@
       <c r="A23" t="s">
         <v>59</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1084,7 +1110,7 @@
       <c r="A25" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="9" t="s">
         <v>62</v>
       </c>
     </row>
